--- a/src/test/resources/data/PublishingSubsidiesAPIDatasheet.xlsx
+++ b/src/test/resources/data/PublishingSubsidiesAPIDatasheet.xlsx
@@ -11,9 +11,9 @@
     <sheet name="BulkUploadValidations" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AddSingleNewSubsidyAward!$A$1:$V$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AddSingleNewSubsidyAward!$A$1:$V$1</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="348">
   <si>
     <t>Training</t>
   </si>
@@ -139,9 +139,6 @@
     <t>SC543850</t>
   </si>
   <si>
-    <t>B13943</t>
-  </si>
-  <si>
     <t>SC229641</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>SC270780</t>
   </si>
   <si>
-    <t>SB0407</t>
-  </si>
-  <si>
     <t>SC231967</t>
   </si>
   <si>
@@ -439,9 +433,6 @@
     <t>Coventry Investment Fund</t>
   </si>
   <si>
-    <t>CR20503</t>
-  </si>
-  <si>
     <t>BEIS Test</t>
   </si>
   <si>
@@ -907,9 +898,6 @@
     <t>subsidyAmountExact</t>
   </si>
   <si>
-    <t>Subsidy Element Full Amount is mandatory.</t>
-  </si>
-  <si>
     <t>nationalIdType</t>
   </si>
   <si>
@@ -919,9 +907,6 @@
     <t>nationalId</t>
   </si>
   <si>
-    <t>nationalId|nationalIdType</t>
-  </si>
-  <si>
     <t>beneficiaryName</t>
   </si>
   <si>
@@ -946,30 +931,12 @@
     <t>goodsOrServices</t>
   </si>
   <si>
-    <t>subsidyObjective|grantingAuthorityName|orgSize|spendingRegion|spendingSector|goodsOrServices|subsidyInstrument|legalGrantingDate|subsidyAmountExact</t>
-  </si>
-  <si>
     <t>invalid UTR Number.</t>
   </si>
   <si>
     <t>Subsidy Instrument-other length &gt; 255 characters.</t>
   </si>
   <si>
-    <t>National ID  must be 10 characters or fewer.|invalid UTR Number.</t>
-  </si>
-  <si>
-    <t>Subsidy Objective  field is mandatory.|Please enter a valid Granting Authority.|Size of Organization  field is mandatory.|Spending Region  field is mandatory.|Spending Sector  field is mandatory.|Goods or Service  field is mandatory|Subsidy Instrument is Mandatory.|Legal Granting Date is Mandatory.|Subsidy Element Full Amount is mandatory.</t>
-  </si>
-  <si>
-    <t>2|6|7|47|8|9|16|47|17|18|19|20|47|24|25|26|52|53|22|23|49|50|27|28|29|55|56|31|32|33|34|58|60|61|35|47|36|3|3|4|5|6|38|47|39|40|37|47|45|47|46|47|44|47|13|41|47|42|43|14|15</t>
-  </si>
-  <si>
-    <t>A|B|C|C|D|D|I|I|J|J|J|J|J|J|J|J|J|J|J|J|J|J|J|J|J|J|J|J|J|J|J|J|J|J|K|K|K|A|A|A|A|A|M|M|M|M|L|L|P|P|Q|Q|O|O|G|N|N|N|N|H|H</t>
-  </si>
-  <si>
-    <t>Either Subsidy Control number or Subsidy title field is mandatory.|Subsidy Measure Title must be 255 characters or fewer |Subsidy Objective  field is mandatory.|Subsidy Objective  field is mandatory.|Subsidy Objective- other field is mandatory when Subsidy Objective is Other|Subsidy Objective- other field lenth is &gt; 255 characters|National Id Type is mandatory.|National Id Type is mandatory.|National ID  field is Mandatory.|National ID  field is Mandatory.|National ID  field is Mandatory.|National ID  field is Mandatory.|National ID  field is Mandatory.|invalid VAT number.|invalid VAT number.|invalid VAT number.|invalid VAT number.|invalid VAT number.|invalid UTR number.|invalid UTR number.|invalid UTR number.|invalid UTR number.|invalid Charity number.|invalid Charity number.|invalid Charity number.|invalid Charity number.|invalid Charity number.|invalid Company Registration Number.|invalid Company Registration Number.|invalid Company Registration Number.|invalid Company Registration Number.|invalid Company Registration Number.|invalid Company Registration Number.|invalid Company Registration Number.|Beneficiary name field is Mandatory|Beneficiary name field is Mandatory|Beneficiary name is too long, it should be 255 characters or fewer|Subsidy Control Number must be 7 characters or fewer|Subsidy Control number does not match with title.|Subsidy Control number does not match with title.|Subsidy Control number does not match with title.|Subsidy Control number does not match with title.|Granting Authority name is Mandatory|Granting Authority name is Mandatory|Please enter a valid Granting Authority.|Please enter a valid Granting Authority.|Size of Organization  field is mandatory.|Size of Organization  field is mandatory.|Spending Region field is mandatory.|Spending Region field is mandatory.|Spending Sector field is mandatory.|Spending Sector field is mandatory.|Goods or Services field is mandatory.|Goods or Services field is mandatory.|Subsidy Element Full Amount Range is mandatory when Subsidy Instrument is Tax Measure .|Legal Granting Date is Mandatory.|Legal Granting Date is Mandatory.|Legal Granting Date format is invalid.|Legal Granting Date format is invalid.|Subsidy Element Full Amount is mandatory.|Subsidy Element Full Amount should be numeric.</t>
-  </si>
-  <si>
     <t>subsidyControlNumber</t>
   </si>
   <si>
@@ -982,12 +949,6 @@
     <t>Subsidy Control Number must be 7 characters or fewer.</t>
   </si>
   <si>
-    <t>SubsidyMeasureTitle|subsidyControlNumber</t>
-  </si>
-  <si>
-    <t>Subsidy Measure Title must be 255 characters or fewer|Subsidy Control number does not match with title.</t>
-  </si>
-  <si>
     <t>Subsidy Objective field is mandatory.</t>
   </si>
   <si>
@@ -1009,71 +970,172 @@
     <t>subsidyAmountRange</t>
   </si>
   <si>
+    <t>Subsidy Element Full Amount is invalid.</t>
+  </si>
+  <si>
+    <t>National Id Type is mandatory.</t>
+  </si>
+  <si>
+    <t>National ID is Mandatory.</t>
+  </si>
+  <si>
+    <t>nationalId|nationalId</t>
+  </si>
+  <si>
+    <t>National ID is Mandatory.|invalid UTR Number.</t>
+  </si>
+  <si>
+    <t>National ID must be 10 characters or fewer.</t>
+  </si>
+  <si>
+    <t>invalid Charity number.</t>
+  </si>
+  <si>
+    <t>invalid Company Registration Number.</t>
+  </si>
+  <si>
+    <t>Beneficiary name field is Mandatory.</t>
+  </si>
+  <si>
+    <t>Size of Organization field is mandatory.</t>
+  </si>
+  <si>
+    <t>grantingAuthorityName|grantingAuthorityName</t>
+  </si>
+  <si>
+    <t>Granting authority name should be 255 characters or fewer.|Please enter a valid Granting Authority.</t>
+  </si>
+  <si>
+    <t>Legal Granting Date inValid.</t>
+  </si>
+  <si>
+    <t>Goods or Services field is mandatory</t>
+  </si>
+  <si>
+    <t>spendingRegion</t>
+  </si>
+  <si>
+    <t>spendingSector</t>
+  </si>
+  <si>
+    <t>validation error</t>
+  </si>
+  <si>
+    <t>2|6|7|47|8|9|16|47|17|18|19|20|47|24|25|26|51|52|53|21|22|23|48|49|50|27|28|29|55|56|30|31|32|33|34|57|58|59|60|61|35|47|36|3|3|4|5|6|38|47|39|40|37|47|45|47|46|47|44|47|13|41|47|42|43|14|15</t>
+  </si>
+  <si>
+    <t>A|B|C|C|D|D|I|I|J|J|J|J|J|J|J|J|J|J|J|J|J|J|J|J|J|J|J|J|J|J|J|J|J|J|J|J|J|J|J|J|K|K|K|A|A|A|A|A|M|M|M|M|L|L|P|P|Q|Q|O|O|G|N|N|N|N|H|H</t>
+  </si>
+  <si>
+    <t>CR205039</t>
+  </si>
+  <si>
+    <t>SB040799</t>
+  </si>
+  <si>
+    <t>BC139439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subsidyControlNumber|SubsidyMeasureTitle </t>
+  </si>
+  <si>
+    <t>Subsidy Control number does not match with title.|Subsidy Measure Title must be 255 characters or fewer</t>
+  </si>
+  <si>
+    <t>subsidyAmountExact|subsidyAmountExact</t>
+  </si>
+  <si>
+    <t>Spending Region field is mandatory.</t>
+  </si>
+  <si>
+    <t>Spending Sector field is mandatory.</t>
+  </si>
+  <si>
+    <t>beneficiaryName|goodsOrServices|grantingAuthorityName|legalGrantingDate|nationalId|nationalIdType|orgSize|spendingRegion|spendingSector|subsidyAmountExact|subsidyAmountExact|subsidyInstrument|subsidyObjective</t>
+  </si>
+  <si>
+    <t>Subsidy Objective field is mandatory.|National Id Type is mandatory.|National ID is Mandatory.|Beneficiary name field is Mandatory.|Please enter a valid Granting Authority.|Size of Organization field is mandatory.|Spending Region field is mandatory.|Spending Sector field is mandatory.|Goods or Services field is mandatory|Subsidy Instrument is Mandatory.|Legal Granting Date is Mandatory.|Subsidy Element Full Amount is mandatory.|Subsidy Element Full Amount is invalid.</t>
+  </si>
+  <si>
+    <t>Subsidy Element Full Amount is mandatory.|Subsidy Element Full Amount is invalid.</t>
+  </si>
+  <si>
+    <r>
+      <t>Either Subsidy Control number or Subsidy title field is mandatory.|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Subsidy Measure Title must be 255 characters or fewer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|Subsidy Objective  field is mandatory.|Subsidy Objective  field is mandatory.|Subsidy Objective- other field is mandatory when Subsidy Objective is Other|Subsidy Objective- other field lenth is &gt; 255 characters|National Id Type is mandatory.|National Id Type is mandatory.|National ID  field is Mandatory.|National ID  field is Mandatory.|National ID  field is Mandatory.|National ID  field is Mandatory.|National ID  field is Mandatory.|invalid VAT number.|invalid VAT number.|invalid VAT number.|invalid VAT number.|invalid VAT number.|invalid VAT number.|invalid UTR number.|invalid UTR number.|invalid UTR number.|invalid UTR number.|invalid UTR number.|invalid UTR number.|invalid Charity number.|invalid Charity number.|invalid Charity number.|invalid Charity number.|invalid Charity number.|invalid Company Registration Number.|invalid Company Registration Number.|invalid Company Registration Number.|invalid Company Registration Number.|invalid Company Registration Number.|invalid Company Registration Number.|invalid Company Registration Number.|invalid Company Registration Number.|invalid Company Registration Number.|invalid Company Registration Number.|Beneficiary name field is Mandatory|Beneficiary name field is Mandatory|Beneficiary name is too long, it should be 255 characters or fewer|Subsidy Control Number must be 7 characters or fewer|Subsidy Control number does not match with title.|Subsidy Control number does not match with title.|Subsidy Control number does not match with title.|Subsidy Control number does not match with title.|Granting Authority name is Mandatory|Granting Authority name is Mandatory|Please enter a valid Granting Authority.|Please enter a valid Granting Authority.|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Size of Organization  field is mandatory.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|Size of Organization  field is mandatory.|Spending Region field is mandatory.|Spending Region field is mandatory.|Spending Sector field is mandatory.|Spending Sector field is mandatory.|Goods or Services field is mandatory.|Goods or Services field is mandatory.|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Subsidy Element Full Amount Range is mandatory when Subsidy Instrument is Tax Measure .</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>|Legal Granting Date is Mandatory.|Legal Granting Date is Mandatory.|Legal Granting Date format is invalid.|Legal Granting Date format is invalid.|Subsidy Element Full Amount is mandatory.|Subsidy Element Full Amount should be numeric.</t>
+    </r>
+  </si>
+  <si>
+    <t>Subsidy Control Number does not exists.</t>
+  </si>
+  <si>
     <t>Subsidy Element Full Amount Range is mandatory when Subsidy Instrument is Tax Measure.</t>
-  </si>
-  <si>
-    <t>Subsidy Element Full Amount is invalid.</t>
-  </si>
-  <si>
-    <t>National Id Type is mandatory.</t>
-  </si>
-  <si>
-    <t>National ID is Mandatory.</t>
-  </si>
-  <si>
-    <t>nationalId|nationalId</t>
-  </si>
-  <si>
-    <t>National ID is Mandatory.|invalid UTR Number.</t>
-  </si>
-  <si>
-    <t>National ID must be 10 characters or fewer.</t>
-  </si>
-  <si>
-    <t>invalid Charity number.</t>
-  </si>
-  <si>
-    <t>invalid Company Registration Number.</t>
-  </si>
-  <si>
-    <t>Beneficiary name field is Mandatory.</t>
-  </si>
-  <si>
-    <t>Size of Organization field is mandatory.</t>
-  </si>
-  <si>
-    <t>grantingAuthorityName|grantingAuthorityName</t>
-  </si>
-  <si>
-    <t>Granting authority name should be 255 characters or fewer.|Please enter a valid Granting Authority.</t>
-  </si>
-  <si>
-    <t>Legal Granting Date inValid.</t>
-  </si>
-  <si>
-    <t>Goods or Services field is mandatory</t>
-  </si>
-  <si>
-    <t>spendingRegion</t>
-  </si>
-  <si>
-    <t>spendingSector</t>
-  </si>
-  <si>
-    <t>Spending Region field is mandatory</t>
-  </si>
-  <si>
-    <t>Spending Sector field is mandatory</t>
-  </si>
-  <si>
-    <t>validation error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1099,6 +1161,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1153,7 +1222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1195,13 +1264,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1497,9 +1569,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1524,10 +1596,10 @@
         <v>7</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>19</v>
@@ -1548,10 +1620,10 @@
         <v>12</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>15</v>
@@ -1560,63 +1632,63 @@
         <v>22</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2" s="6">
         <v>100002389</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="K2" s="8">
         <v>500000</v>
@@ -1625,16 +1697,16 @@
         <v>43122</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
@@ -1644,18 +1716,18 @@
       <c r="T2" s="13"/>
       <c r="U2" s="13"/>
       <c r="V2" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>28</v>
@@ -1664,10 +1736,10 @@
         <v>58614000</v>
       </c>
       <c r="F3" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>140</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>143</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>3</v>
@@ -1676,7 +1748,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K3" s="8">
         <v>0</v>
@@ -1685,22 +1757,22 @@
         <v>43122</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>25</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="S3" s="13">
         <v>0</v>
@@ -1708,18 +1780,18 @@
       <c r="T3" s="13"/>
       <c r="U3" s="13"/>
       <c r="V3" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>28</v>
@@ -1728,10 +1800,10 @@
         <v>58614000</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>5</v>
@@ -1740,7 +1812,7 @@
         <v>4</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K4" s="8">
         <v>500000</v>
@@ -1755,10 +1827,10 @@
         <v>17</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -1768,30 +1840,30 @@
       <c r="T4" s="13"/>
       <c r="U4" s="13"/>
       <c r="V4" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>1</v>
@@ -1800,10 +1872,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L5" s="9">
         <v>44053</v>
@@ -1828,18 +1900,18 @@
       <c r="T5" s="13"/>
       <c r="U5" s="13"/>
       <c r="V5" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="56" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>28</v>
@@ -1848,19 +1920,19 @@
         <v>2021212</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>32</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K6" s="8">
         <v>10000</v>
@@ -1869,16 +1941,16 @@
         <v>43994</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>23</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -1888,18 +1960,18 @@
       <c r="T6" s="13"/>
       <c r="U6" s="13"/>
       <c r="V6" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>28</v>
@@ -1908,7 +1980,7 @@
         <v>10323184</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>35</v>
@@ -1917,10 +1989,10 @@
         <v>5</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K7" s="8">
         <v>5500</v>
@@ -1929,16 +2001,16 @@
         <v>44105</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -1948,48 +2020,48 @@
       <c r="T7" s="13"/>
       <c r="U7" s="13"/>
       <c r="V7" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>138</v>
+      <c r="E8" s="14" t="s">
+        <v>334</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>6</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L8" s="9">
         <v>42982</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N8" s="7" t="s">
         <v>17</v>
@@ -1998,7 +2070,7 @@
         <v>30</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -2008,30 +2080,30 @@
       <c r="T8" s="13"/>
       <c r="U8" s="13"/>
       <c r="V8" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>5</v>
@@ -2040,7 +2112,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K9" s="8">
         <v>999287</v>
@@ -2049,16 +2121,16 @@
         <v>43327</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -2068,39 +2140,39 @@
       <c r="T9" s="13"/>
       <c r="U9" s="13"/>
       <c r="V9" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>138</v>
+      <c r="E10" s="14" t="s">
+        <v>334</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>3</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K10" s="8">
         <v>664678</v>
@@ -2109,7 +2181,7 @@
         <v>43565</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N10" s="7" t="s">
         <v>17</v>
@@ -2118,7 +2190,7 @@
         <v>23</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -2128,27 +2200,27 @@
       <c r="T10" s="13"/>
       <c r="U10" s="13"/>
       <c r="V10" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>1378312</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>35</v>
@@ -2160,7 +2232,7 @@
         <v>4</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K11" s="8">
         <v>950000</v>
@@ -2169,7 +2241,7 @@
         <v>43108</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N11" s="7" t="s">
         <v>17</v>
@@ -2178,7 +2250,7 @@
         <v>29</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -2188,30 +2260,30 @@
       <c r="T11" s="13"/>
       <c r="U11" s="13"/>
       <c r="V11" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>138</v>
+      <c r="E12" s="14" t="s">
+        <v>334</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H12" s="11" t="s">
         <v>3</v>
@@ -2220,7 +2292,7 @@
         <v>33</v>
       </c>
       <c r="J12" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K12" s="8">
         <v>774678</v>
@@ -2229,7 +2301,7 @@
         <v>43534</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N12" s="7" t="s">
         <v>17</v>
@@ -2238,7 +2310,7 @@
         <v>23</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -2248,39 +2320,39 @@
       <c r="T12" s="13"/>
       <c r="U12" s="13"/>
       <c r="V12" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>138</v>
+      <c r="E13" s="14" t="s">
+        <v>334</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>6</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K13" s="8">
         <v>0</v>
@@ -2289,7 +2361,7 @@
         <v>43593</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>17</v>
@@ -2298,7 +2370,7 @@
         <v>30</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -2308,18 +2380,18 @@
       <c r="T13" s="13"/>
       <c r="U13" s="13"/>
       <c r="V13" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>26</v>
@@ -2328,10 +2400,10 @@
         <v>31</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H14" s="11" t="s">
         <v>1</v>
@@ -2340,7 +2412,7 @@
         <v>6</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K14" s="8">
         <v>750000</v>
@@ -2349,7 +2421,7 @@
         <v>43992</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N14" s="7" t="s">
         <v>17</v>
@@ -2368,18 +2440,18 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
       <c r="V14" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>28</v>
@@ -2388,10 +2460,10 @@
         <v>2021215</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H15" s="11" t="s">
         <v>5</v>
@@ -2400,7 +2472,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K15" s="8">
         <v>750000</v>
@@ -2409,7 +2481,7 @@
         <v>43167</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N15" s="7" t="s">
         <v>17</v>
@@ -2418,7 +2490,7 @@
         <v>23</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -2428,15 +2500,15 @@
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
       <c r="V15" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>36</v>
@@ -2444,23 +2516,23 @@
       <c r="D16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="15" t="s">
-        <v>138</v>
+      <c r="E16" s="14" t="s">
+        <v>334</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>6</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K16" s="8">
         <v>0</v>
@@ -2469,7 +2541,7 @@
         <v>42584</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N16" s="7" t="s">
         <v>17</v>
@@ -2478,7 +2550,7 @@
         <v>30</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -2488,18 +2560,18 @@
       <c r="T16" s="13"/>
       <c r="U16" s="13"/>
       <c r="V16" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>26</v>
@@ -2508,10 +2580,10 @@
         <v>31</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H17" s="11" t="s">
         <v>1</v>
@@ -2520,7 +2592,7 @@
         <v>33</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K17" s="8">
         <v>0</v>
@@ -2529,7 +2601,7 @@
         <v>42686</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="N17" s="7" t="s">
         <v>17</v>
@@ -2538,7 +2610,7 @@
         <v>24</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -2548,39 +2620,39 @@
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
       <c r="V17" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>138</v>
+      <c r="E18" s="14" t="s">
+        <v>334</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H18" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J18" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K18" s="8">
         <v>597336</v>
@@ -2589,7 +2661,7 @@
         <v>44117</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="N18" s="7" t="s">
         <v>17</v>
@@ -2598,7 +2670,7 @@
         <v>24</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -2608,18 +2680,18 @@
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>26</v>
@@ -2628,19 +2700,19 @@
         <v>37</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H19" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J19" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K19" s="8">
         <v>3500</v>
@@ -2649,16 +2721,16 @@
         <v>44104</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>23</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -2668,39 +2740,39 @@
       <c r="T19" s="13"/>
       <c r="U19" s="13"/>
       <c r="V19" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>38</v>
+        <v>336</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H20" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J20" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K20" s="8">
         <v>5500</v>
@@ -2709,16 +2781,16 @@
         <v>44105</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N20" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -2728,39 +2800,39 @@
       <c r="T20" s="13"/>
       <c r="U20" s="13"/>
       <c r="V20" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H21" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J21" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K21" s="8">
         <v>5500</v>
@@ -2769,16 +2841,16 @@
         <v>44105</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -2788,27 +2860,27 @@
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
       <c r="V21" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G22" s="11" t="s">
         <v>35</v>
@@ -2817,10 +2889,10 @@
         <v>5</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J22" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K22" s="8">
         <v>5500</v>
@@ -2829,16 +2901,16 @@
         <v>44105</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -2848,27 +2920,27 @@
       <c r="T22" s="13"/>
       <c r="U22" s="13"/>
       <c r="V22" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="42" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>32</v>
@@ -2877,10 +2949,10 @@
         <v>5</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K23" s="8">
         <v>5500</v>
@@ -2889,16 +2961,16 @@
         <v>44105</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -2908,39 +2980,39 @@
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
       <c r="V23" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K24" s="8">
         <v>5500</v>
@@ -2949,16 +3021,16 @@
         <v>44105</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
@@ -2968,39 +3040,39 @@
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
       <c r="V24" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>43</v>
+        <v>335</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H25" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J25" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K25" s="8">
         <v>5500</v>
@@ -3009,16 +3081,16 @@
         <v>44105</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N25" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
@@ -3028,27 +3100,27 @@
       <c r="T25" s="13"/>
       <c r="U25" s="13"/>
       <c r="V25" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G26" s="11" t="s">
         <v>32</v>
@@ -3057,10 +3129,10 @@
         <v>5</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J26" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K26" s="8">
         <v>5500</v>
@@ -3069,16 +3141,16 @@
         <v>44105</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N26" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
@@ -3088,35 +3160,35 @@
       <c r="T26" s="13"/>
       <c r="U26" s="13"/>
       <c r="V26" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E27" s="10">
         <v>100002389</v>
       </c>
       <c r="F27" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="H27" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="K27" s="8">
         <v>500000</v>
@@ -3125,16 +3197,16 @@
         <v>43122</v>
       </c>
       <c r="M27" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N27" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q27" s="12"/>
       <c r="R27" s="13"/>
@@ -3142,24 +3214,24 @@
         <v>2</v>
       </c>
       <c r="T27" s="13" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="U27" s="13" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="V27" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>28</v>
@@ -3168,10 +3240,10 @@
         <v>58614000</v>
       </c>
       <c r="F28" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>3</v>
@@ -3180,7 +3252,7 @@
         <v>10</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K28" s="8">
         <v>0</v>
@@ -3192,42 +3264,42 @@
         <v>27</v>
       </c>
       <c r="N28" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O28" s="12" t="s">
         <v>25</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q28" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="R28" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="S28" s="13">
         <v>1</v>
       </c>
       <c r="T28" s="13" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="U28" s="13" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="V28" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>28</v>
@@ -3236,10 +3308,10 @@
         <v>58614000</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>5</v>
@@ -3248,7 +3320,7 @@
         <v>4</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K29" s="8">
         <v>500000</v>
@@ -3257,54 +3329,62 @@
         <v>43122</v>
       </c>
       <c r="M29" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N29" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O29" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q29" s="12"/>
       <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
+      <c r="S29" s="13">
+        <v>1</v>
+      </c>
+      <c r="T29" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="U29" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="V29" s="13" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="30" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E30" s="10">
         <v>100002389</v>
       </c>
       <c r="F30" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="H30" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J30" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J30" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="K30" s="8">
         <v>500000</v>
@@ -3313,33 +3393,41 @@
         <v>43122</v>
       </c>
       <c r="M30" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N30" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P30" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q30" s="12"/>
       <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
+      <c r="S30" s="13">
+        <v>1</v>
+      </c>
+      <c r="T30" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="U30" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="V30" s="13" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="31" spans="1:22" ht="126" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>28</v>
@@ -3348,10 +3436,10 @@
         <v>58614000</v>
       </c>
       <c r="F31" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>3</v>
@@ -3360,7 +3448,7 @@
         <v>10</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K31" s="8">
         <v>0</v>
@@ -3372,42 +3460,42 @@
         <v>27</v>
       </c>
       <c r="N31" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O31" s="12" t="s">
         <v>25</v>
       </c>
       <c r="P31" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q31" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="R31" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="S31" s="13">
         <v>2</v>
       </c>
-      <c r="T31" s="13" t="s">
-        <v>319</v>
+      <c r="T31" s="18" t="s">
+        <v>337</v>
       </c>
       <c r="U31" s="13" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="V31" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>28</v>
@@ -3416,17 +3504,17 @@
         <v>58614000</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H32" s="12" t="s">
         <v>5</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K32" s="8">
         <v>500000</v>
@@ -3435,16 +3523,16 @@
         <v>43122</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N32" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O32" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P32" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q32" s="12"/>
       <c r="R32" s="13"/>
@@ -3452,36 +3540,36 @@
         <v>1</v>
       </c>
       <c r="T32" s="13" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="U32" s="13" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="V32" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E33" s="10">
         <v>100002389</v>
       </c>
       <c r="F33" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>142</v>
       </c>
       <c r="H33" s="12" t="s">
         <v>1</v>
@@ -3490,7 +3578,7 @@
         <v>10</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K33" s="8">
         <v>500000</v>
@@ -3499,16 +3587,16 @@
         <v>43122</v>
       </c>
       <c r="M33" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N33" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O33" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q33" s="12"/>
       <c r="R33" s="13"/>
@@ -3516,24 +3604,24 @@
         <v>1</v>
       </c>
       <c r="T33" s="13" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="U33" s="13" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="V33" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>28</v>
@@ -3542,10 +3630,10 @@
         <v>58614000</v>
       </c>
       <c r="F34" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="H34" s="12" t="s">
         <v>3</v>
@@ -3554,7 +3642,7 @@
         <v>10</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K34" s="8">
         <v>0</v>
@@ -3566,42 +3654,42 @@
         <v>27</v>
       </c>
       <c r="N34" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O34" s="12" t="s">
         <v>25</v>
       </c>
       <c r="P34" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q34" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="R34" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="S34" s="13">
         <v>1</v>
       </c>
       <c r="T34" s="13" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="U34" s="13" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="V34" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>28</v>
@@ -3610,17 +3698,17 @@
         <v>58614000</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H35" s="12"/>
       <c r="I35" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K35" s="8">
         <v>500000</v>
@@ -3629,16 +3717,16 @@
         <v>43122</v>
       </c>
       <c r="M35" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N35" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O35" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P35" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q35" s="12"/>
       <c r="R35" s="13"/>
@@ -3646,45 +3734,45 @@
         <v>1</v>
       </c>
       <c r="T35" s="13" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="U35" s="13" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="V35" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E36" s="10">
         <v>100002389</v>
       </c>
       <c r="F36" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G36" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>142</v>
       </c>
       <c r="H36" s="12" t="s">
         <v>10</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K36" s="8">
         <v>500000</v>
@@ -3693,16 +3781,16 @@
         <v>43122</v>
       </c>
       <c r="M36" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N36" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O36" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P36" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q36" s="12"/>
       <c r="R36" s="13"/>
@@ -3710,24 +3798,24 @@
         <v>1</v>
       </c>
       <c r="T36" s="13" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="U36" s="13" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="V36" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="1:22" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>28</v>
@@ -3736,10 +3824,10 @@
         <v>58614000</v>
       </c>
       <c r="F37" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G37" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="H37" s="12" t="s">
         <v>10</v>
@@ -3748,7 +3836,7 @@
         <v>10</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K37" s="8">
         <v>0</v>
@@ -3760,42 +3848,42 @@
         <v>27</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O37" s="12" t="s">
         <v>25</v>
       </c>
       <c r="P37" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q37" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="S37" s="13">
         <v>1</v>
       </c>
       <c r="T37" s="13" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="U37" s="13" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="V37" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>28</v>
@@ -3804,10 +3892,10 @@
         <v>58614000</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H38" s="12" t="s">
         <v>1</v>
@@ -3823,103 +3911,103 @@
         <v>43122</v>
       </c>
       <c r="M38" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N38" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O38" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P38" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q38" s="12"/>
       <c r="R38" s="13"/>
-      <c r="S38" s="17">
+      <c r="S38" s="16">
         <v>1</v>
       </c>
       <c r="T38" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="U38" s="13" t="s">
-        <v>328</v>
+        <v>314</v>
+      </c>
+      <c r="U38" s="17" t="s">
+        <v>347</v>
       </c>
       <c r="V38" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E39" s="10">
         <v>100002389</v>
       </c>
       <c r="F39" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G39" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>142</v>
       </c>
       <c r="H39" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
         <v>43122</v>
       </c>
       <c r="M39" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N39" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O39" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P39" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q39" s="12"/>
       <c r="R39" s="13"/>
       <c r="S39" s="13">
-        <v>1</v>
-      </c>
-      <c r="T39" s="13" t="s">
-        <v>293</v>
+        <v>2</v>
+      </c>
+      <c r="T39" s="18" t="s">
+        <v>339</v>
       </c>
       <c r="U39" s="13" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="V39" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>28</v>
@@ -3928,10 +4016,10 @@
         <v>58614000</v>
       </c>
       <c r="F40" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G40" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="H40" s="12" t="s">
         <v>3</v>
@@ -3940,10 +4028,10 @@
         <v>10</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L40" s="9">
         <v>43122</v>
@@ -3952,39 +4040,39 @@
         <v>27</v>
       </c>
       <c r="N40" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O40" s="12" t="s">
         <v>25</v>
       </c>
       <c r="P40" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q40" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="R40" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="S40" s="13">
         <v>1</v>
       </c>
       <c r="T40" s="13" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="U40" s="13" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="V40" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>36</v>
@@ -3994,10 +4082,10 @@
         <v>58614000</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H41" s="12" t="s">
         <v>5</v>
@@ -4006,7 +4094,7 @@
         <v>4</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K41" s="8">
         <v>500000</v>
@@ -4015,16 +4103,16 @@
         <v>43122</v>
       </c>
       <c r="M41" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N41" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O41" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P41" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q41" s="12"/>
       <c r="R41" s="13"/>
@@ -4032,43 +4120,43 @@
         <v>1</v>
       </c>
       <c r="T41" s="13" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="U41" s="13" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="V41" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G42" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="H42" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J42" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J42" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="K42" s="8">
         <v>500000</v>
@@ -4077,16 +4165,16 @@
         <v>43122</v>
       </c>
       <c r="M42" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N42" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O42" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P42" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q42" s="12"/>
       <c r="R42" s="13"/>
@@ -4094,34 +4182,34 @@
         <v>1</v>
       </c>
       <c r="T42" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U42" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="V42" s="13" t="s">
         <v>331</v>
-      </c>
-      <c r="V42" s="13" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="43" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>28</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G43" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="H43" s="12" t="s">
         <v>3</v>
@@ -4130,7 +4218,7 @@
         <v>10</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K43" s="8">
         <v>0</v>
@@ -4142,52 +4230,52 @@
         <v>27</v>
       </c>
       <c r="N43" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O43" s="12" t="s">
         <v>25</v>
       </c>
       <c r="P43" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q43" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="R43" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="S43" s="13">
         <v>1</v>
       </c>
       <c r="T43" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U43" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="V43" s="13" t="s">
         <v>331</v>
-      </c>
-      <c r="V43" s="13" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="44" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H44" s="12" t="s">
         <v>5</v>
@@ -4196,7 +4284,7 @@
         <v>4</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K44" s="8">
         <v>500000</v>
@@ -4205,16 +4293,16 @@
         <v>43122</v>
       </c>
       <c r="M44" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N44" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P44" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q44" s="12"/>
       <c r="R44" s="13"/>
@@ -4222,43 +4310,43 @@
         <v>1</v>
       </c>
       <c r="T44" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U44" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="V44" s="13" t="s">
         <v>331</v>
-      </c>
-      <c r="V44" s="13" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G45" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="H45" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J45" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J45" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="K45" s="8">
         <v>500000</v>
@@ -4267,16 +4355,16 @@
         <v>43122</v>
       </c>
       <c r="M45" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N45" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P45" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q45" s="12"/>
       <c r="R45" s="13"/>
@@ -4284,36 +4372,36 @@
         <v>2</v>
       </c>
       <c r="T45" s="13" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="U45" s="13" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="V45" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E46" s="10">
         <v>58614000999</v>
       </c>
       <c r="F46" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G46" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="H46" s="12" t="s">
         <v>3</v>
@@ -4322,7 +4410,7 @@
         <v>10</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K46" s="8">
         <v>0</v>
@@ -4334,54 +4422,54 @@
         <v>27</v>
       </c>
       <c r="N46" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O46" s="12" t="s">
         <v>25</v>
       </c>
       <c r="P46" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q46" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="R46" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="S46" s="13">
         <v>1</v>
       </c>
       <c r="T46" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U46" s="13" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="V46" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H47" s="12" t="s">
         <v>5</v>
@@ -4390,7 +4478,7 @@
         <v>4</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K47" s="8">
         <v>500000</v>
@@ -4399,62 +4487,62 @@
         <v>43122</v>
       </c>
       <c r="M47" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N47" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O47" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P47" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q47" s="12"/>
       <c r="R47" s="13"/>
       <c r="S47" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T47" s="13" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="U47" s="13" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="V47" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="48" spans="1:22" ht="42" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F48" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G48" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G48" s="12" t="s">
+      <c r="H48" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J48" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J48" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="K48" s="8">
         <v>500000</v>
@@ -4463,53 +4551,53 @@
         <v>43122</v>
       </c>
       <c r="M48" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N48" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O48" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P48" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q48" s="12"/>
       <c r="R48" s="13"/>
       <c r="S48" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T48" s="13" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="U48" s="13" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="V48" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E49" s="10">
         <v>5861400099</v>
       </c>
       <c r="F49" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G49" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="H49" s="12" t="s">
         <v>3</v>
@@ -4518,7 +4606,7 @@
         <v>10</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K49" s="8">
         <v>0</v>
@@ -4530,54 +4618,54 @@
         <v>27</v>
       </c>
       <c r="N49" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O49" s="12" t="s">
         <v>25</v>
       </c>
       <c r="P49" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q49" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="R49" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="S49" s="13">
         <v>1</v>
       </c>
       <c r="T49" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U49" s="13" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="V49" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>5</v>
@@ -4586,7 +4674,7 @@
         <v>4</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K50" s="8">
         <v>500000</v>
@@ -4595,16 +4683,16 @@
         <v>43122</v>
       </c>
       <c r="M50" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N50" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O50" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P50" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q50" s="12"/>
       <c r="R50" s="13"/>
@@ -4612,45 +4700,45 @@
         <v>1</v>
       </c>
       <c r="T50" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U50" s="13" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="V50" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F51" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G51" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G51" s="12" t="s">
+      <c r="H51" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J51" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J51" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="K51" s="8">
         <v>500000</v>
@@ -4659,16 +4747,16 @@
         <v>43122</v>
       </c>
       <c r="M51" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N51" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O51" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P51" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q51" s="12"/>
       <c r="R51" s="13"/>
@@ -4676,24 +4764,24 @@
         <v>1</v>
       </c>
       <c r="T51" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U51" s="13" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="V51" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>28</v>
@@ -4702,10 +4790,10 @@
         <v>586140009</v>
       </c>
       <c r="F52" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G52" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="H52" s="12" t="s">
         <v>3</v>
@@ -4714,7 +4802,7 @@
         <v>10</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K52" s="8">
         <v>0</v>
@@ -4726,54 +4814,54 @@
         <v>27</v>
       </c>
       <c r="N52" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O52" s="12" t="s">
         <v>25</v>
       </c>
       <c r="P52" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q52" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="R52" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="S52" s="13">
         <v>1</v>
       </c>
       <c r="T52" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U52" s="13" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="V52" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>28</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H53" s="12" t="s">
         <v>5</v>
@@ -4782,7 +4870,7 @@
         <v>4</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K53" s="8">
         <v>500000</v>
@@ -4791,16 +4879,16 @@
         <v>43122</v>
       </c>
       <c r="M53" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N53" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O53" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P53" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q53" s="12"/>
       <c r="R53" s="13"/>
@@ -4808,45 +4896,45 @@
         <v>1</v>
       </c>
       <c r="T53" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U53" s="13" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="V53" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>28</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F54" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G54" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G54" s="12" t="s">
+      <c r="H54" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J54" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J54" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="K54" s="8">
         <v>500000</v>
@@ -4855,16 +4943,16 @@
         <v>43122</v>
       </c>
       <c r="M54" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N54" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O54" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P54" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q54" s="12"/>
       <c r="R54" s="13"/>
@@ -4872,24 +4960,24 @@
         <v>1</v>
       </c>
       <c r="T54" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U54" s="13" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="V54" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>26</v>
@@ -4898,10 +4986,10 @@
         <v>586140009</v>
       </c>
       <c r="F55" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G55" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="H55" s="12" t="s">
         <v>3</v>
@@ -4910,7 +4998,7 @@
         <v>10</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K55" s="8">
         <v>0</v>
@@ -4922,54 +5010,54 @@
         <v>27</v>
       </c>
       <c r="N55" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O55" s="12" t="s">
         <v>25</v>
       </c>
       <c r="P55" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q55" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="R55" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="S55" s="13">
         <v>1</v>
       </c>
       <c r="T55" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U55" s="13" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="V55" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>5</v>
@@ -4978,7 +5066,7 @@
         <v>4</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K56" s="8">
         <v>500000</v>
@@ -4987,16 +5075,16 @@
         <v>43122</v>
       </c>
       <c r="M56" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N56" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O56" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P56" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q56" s="12"/>
       <c r="R56" s="13"/>
@@ -5004,45 +5092,45 @@
         <v>1</v>
       </c>
       <c r="T56" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U56" s="13" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="V56" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F57" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G57" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G57" s="12" t="s">
+      <c r="H57" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J57" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="H57" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I57" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J57" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="K57" s="8">
         <v>500000</v>
@@ -5051,16 +5139,16 @@
         <v>43122</v>
       </c>
       <c r="M57" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N57" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O57" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P57" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q57" s="12"/>
       <c r="R57" s="13"/>
@@ -5068,36 +5156,36 @@
         <v>1</v>
       </c>
       <c r="T57" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U57" s="13" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="V57" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F58" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G58" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="H58" s="12" t="s">
         <v>3</v>
@@ -5106,7 +5194,7 @@
         <v>10</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K58" s="8">
         <v>0</v>
@@ -5118,54 +5206,54 @@
         <v>27</v>
       </c>
       <c r="N58" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O58" s="12" t="s">
         <v>25</v>
       </c>
       <c r="P58" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q58" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="R58" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="S58" s="13">
         <v>1</v>
       </c>
       <c r="T58" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U58" s="13" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="V58" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H59" s="12" t="s">
         <v>5</v>
@@ -5174,7 +5262,7 @@
         <v>4</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K59" s="8">
         <v>500000</v>
@@ -5183,16 +5271,16 @@
         <v>43122</v>
       </c>
       <c r="M59" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N59" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O59" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P59" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q59" s="12"/>
       <c r="R59" s="13"/>
@@ -5200,43 +5288,43 @@
         <v>1</v>
       </c>
       <c r="T59" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U59" s="13" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="V59" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E60" s="10">
         <v>100002389</v>
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J60" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J60" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="K60" s="8">
         <v>500000</v>
@@ -5245,16 +5333,16 @@
         <v>43122</v>
       </c>
       <c r="M60" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N60" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O60" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P60" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q60" s="12"/>
       <c r="R60" s="13"/>
@@ -5262,21 +5350,21 @@
         <v>1</v>
       </c>
       <c r="T60" s="13" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="U60" s="13" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="V60" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61" spans="1:22" ht="280" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>36</v>
@@ -5288,10 +5376,10 @@
         <v>58614000</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H61" s="12" t="s">
         <v>3</v>
@@ -5300,7 +5388,7 @@
         <v>10</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K61" s="8">
         <v>0</v>
@@ -5312,42 +5400,42 @@
         <v>27</v>
       </c>
       <c r="N61" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O61" s="12" t="s">
         <v>25</v>
       </c>
       <c r="P61" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q61" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="R61" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="S61" s="13">
         <v>1</v>
       </c>
       <c r="T61" s="13" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="U61" s="13" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="V61" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="62" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>28</v>
@@ -5356,7 +5444,7 @@
         <v>58614000</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G62" s="12"/>
       <c r="H62" s="12" t="s">
@@ -5366,7 +5454,7 @@
         <v>4</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K62" s="8">
         <v>500000</v>
@@ -5375,16 +5463,16 @@
         <v>43122</v>
       </c>
       <c r="M62" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N62" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O62" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P62" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q62" s="12"/>
       <c r="R62" s="13"/>
@@ -5392,45 +5480,45 @@
         <v>1</v>
       </c>
       <c r="T62" s="13" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="U62" s="13" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="V62" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E63" s="10">
         <v>100002389</v>
       </c>
       <c r="F63" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G63" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G63" s="12" t="s">
+      <c r="H63" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J63" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I63" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J63" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="K63" s="8">
         <v>500000</v>
@@ -5443,10 +5531,10 @@
         <v>17</v>
       </c>
       <c r="O63" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P63" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q63" s="12"/>
       <c r="R63" s="13"/>
@@ -5454,24 +5542,24 @@
         <v>1</v>
       </c>
       <c r="T63" s="13" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="U63" s="13" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="V63" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="64" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>28</v>
@@ -5480,10 +5568,10 @@
         <v>58614000</v>
       </c>
       <c r="F64" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G64" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="G64" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="H64" s="12" t="s">
         <v>3</v>
@@ -5492,7 +5580,7 @@
         <v>10</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K64" s="8">
         <v>0</v>
@@ -5501,45 +5589,45 @@
         <v>43122</v>
       </c>
       <c r="M64" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="N64" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O64" s="12" t="s">
         <v>25</v>
       </c>
       <c r="P64" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q64" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="R64" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="S64" s="13">
         <v>2</v>
       </c>
       <c r="T64" s="13" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="U64" s="13" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="V64" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>28</v>
@@ -5548,10 +5636,10 @@
         <v>58614000</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H65" s="12" t="s">
         <v>5</v>
@@ -5560,7 +5648,7 @@
         <v>4</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K65" s="8">
         <v>500000</v>
@@ -5569,16 +5657,16 @@
         <v>43122</v>
       </c>
       <c r="M65" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="N65" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O65" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P65" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q65" s="12"/>
       <c r="R65" s="13"/>
@@ -5586,61 +5674,61 @@
         <v>1</v>
       </c>
       <c r="T65" s="13" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="U65" s="13" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="V65" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E66" s="10">
         <v>100002389</v>
       </c>
       <c r="F66" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G66" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G66" s="12" t="s">
+      <c r="H66" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J66" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="H66" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I66" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J66" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="K66" s="8">
         <v>500000</v>
       </c>
       <c r="L66" s="9"/>
       <c r="M66" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N66" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O66" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P66" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q66" s="12"/>
       <c r="R66" s="13"/>
@@ -5648,24 +5736,24 @@
         <v>1</v>
       </c>
       <c r="T66" s="13" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="U66" s="13" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="V66" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="67" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>28</v>
@@ -5674,10 +5762,10 @@
         <v>58614000</v>
       </c>
       <c r="F67" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G67" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="H67" s="12" t="s">
         <v>3</v>
@@ -5686,93 +5774,93 @@
         <v>10</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K67" s="8">
         <v>0</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="M67" s="12" t="s">
         <v>27</v>
       </c>
       <c r="N67" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O67" s="12" t="s">
         <v>25</v>
       </c>
       <c r="P67" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q67" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="R67" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="S67" s="13">
         <v>1</v>
       </c>
       <c r="T67" s="13" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="U67" s="13" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="V67" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="68" spans="1:22" ht="42" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E68" s="10">
         <v>100002389</v>
       </c>
       <c r="F68" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G68" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G68" s="12" t="s">
+      <c r="H68" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J68" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="H68" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I68" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J68" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="K68" s="8">
         <v>500000</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M68" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N68" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O68" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P68" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q68" s="12"/>
       <c r="R68" s="13"/>
@@ -5780,24 +5868,24 @@
         <v>1</v>
       </c>
       <c r="T68" s="13" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="U68" s="13" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="V68" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>28</v>
@@ -5806,10 +5894,10 @@
         <v>58614000</v>
       </c>
       <c r="F69" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G69" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="H69" s="12" t="s">
         <v>3</v>
@@ -5818,7 +5906,7 @@
         <v>10</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K69" s="8">
         <v>0</v>
@@ -5834,36 +5922,36 @@
         <v>25</v>
       </c>
       <c r="P69" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q69" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="R69" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="S69" s="13">
         <v>1</v>
       </c>
       <c r="T69" s="13" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="U69" s="13" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="V69" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="70" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>28</v>
@@ -5872,10 +5960,10 @@
         <v>58614000</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H70" s="12" t="s">
         <v>5</v>
@@ -5884,7 +5972,7 @@
         <v>4</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K70" s="8">
         <v>500000</v>
@@ -5893,14 +5981,14 @@
         <v>43122</v>
       </c>
       <c r="M70" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N70" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O70" s="12"/>
       <c r="P70" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q70" s="12"/>
       <c r="R70" s="13"/>
@@ -5908,45 +5996,45 @@
         <v>1</v>
       </c>
       <c r="T70" s="13" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="U70" s="13" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="V70" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E71" s="10">
         <v>100002389</v>
       </c>
       <c r="F71" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G71" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G71" s="12" t="s">
+      <c r="H71" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J71" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I71" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J71" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="K71" s="8">
         <v>500000</v>
@@ -5955,13 +6043,13 @@
         <v>43122</v>
       </c>
       <c r="M71" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N71" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O71" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P71" s="12"/>
       <c r="Q71" s="12"/>
@@ -5970,24 +6058,24 @@
         <v>1</v>
       </c>
       <c r="T71" s="13" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="U71" s="13" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="V71" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D72" s="12"/>
       <c r="E72" s="10"/>
@@ -6005,48 +6093,48 @@
       <c r="Q72" s="12"/>
       <c r="R72" s="13"/>
       <c r="S72" s="13">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="T72" s="13" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="U72" s="13" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="V72" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E73" s="10">
         <v>123456789</v>
       </c>
       <c r="F73" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G73" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="G73" s="12" t="s">
+      <c r="H73" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="I73" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J73" s="12" t="s">
         <v>142</v>
-      </c>
-      <c r="H73" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I73" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J73" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="K73" s="8">
         <v>500000</v>
@@ -6055,16 +6143,16 @@
         <v>43122</v>
       </c>
       <c r="M73" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N73" s="12" t="s">
         <v>17</v>
       </c>
       <c r="O73" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="P73" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q73" s="12"/>
       <c r="R73" s="13"/>
@@ -6072,36 +6160,36 @@
         <v>1</v>
       </c>
       <c r="T73" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U73" s="13" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="V73" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="74" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F74" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G74" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="G74" s="12" t="s">
-        <v>143</v>
       </c>
       <c r="H74" s="12" t="s">
         <v>3</v>
@@ -6110,7 +6198,7 @@
         <v>10</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K74" s="8">
         <v>0</v>
@@ -6119,57 +6207,57 @@
         <v>43122</v>
       </c>
       <c r="M74" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N74" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O74" s="12" t="s">
         <v>25</v>
       </c>
       <c r="P74" s="12" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q74" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="S74" s="13">
         <v>1</v>
       </c>
       <c r="T74" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U74" s="13" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="V74" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="75" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H75" s="12" t="s">
         <v>5</v>
@@ -6178,7 +6266,7 @@
         <v>4</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K75" s="8">
         <v>500000</v>
@@ -6193,10 +6281,10 @@
         <v>17</v>
       </c>
       <c r="O75" s="12" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P75" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q75" s="12"/>
       <c r="R75" s="13"/>
@@ -6204,36 +6292,36 @@
         <v>1</v>
       </c>
       <c r="T75" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U75" s="13" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="V75" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="76" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E76" s="10">
         <v>12345678</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H76" s="12" t="s">
         <v>1</v>
@@ -6242,10 +6330,10 @@
         <v>0</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="L76" s="9">
         <v>44053</v>
@@ -6268,45 +6356,45 @@
         <v>1</v>
       </c>
       <c r="T76" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U76" s="13" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="V76" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="77" spans="1:22" ht="56" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G77" s="12" t="s">
         <v>32</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K77" s="8">
         <v>10000</v>
@@ -6315,16 +6403,16 @@
         <v>43994</v>
       </c>
       <c r="M77" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N77" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O77" s="12" t="s">
         <v>23</v>
       </c>
       <c r="P77" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q77" s="12"/>
       <c r="R77" s="13"/>
@@ -6332,33 +6420,33 @@
         <v>1</v>
       </c>
       <c r="T77" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U77" s="13" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="V77" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G78" s="12" t="s">
         <v>35</v>
@@ -6367,10 +6455,10 @@
         <v>5</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K78" s="8">
         <v>5500</v>
@@ -6379,16 +6467,16 @@
         <v>44105</v>
       </c>
       <c r="M78" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N78" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O78" s="12" t="s">
         <v>24</v>
       </c>
       <c r="P78" s="12" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q78" s="12"/>
       <c r="R78" s="13"/>
@@ -6396,24 +6484,24 @@
         <v>1</v>
       </c>
       <c r="T78" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U78" s="13" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="V78" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>28</v>
@@ -6422,28 +6510,28 @@
         <v>1234567</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G79" s="12" t="s">
         <v>34</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I79" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L79" s="9">
         <v>42982</v>
       </c>
       <c r="M79" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N79" s="12" t="s">
         <v>17</v>
@@ -6452,7 +6540,7 @@
         <v>30</v>
       </c>
       <c r="P79" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q79" s="12"/>
       <c r="R79" s="13"/>
@@ -6462,30 +6550,30 @@
       <c r="T79" s="13"/>
       <c r="U79" s="13"/>
       <c r="V79" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>28</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H80" s="12" t="s">
         <v>5</v>
@@ -6494,7 +6582,7 @@
         <v>6</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K80" s="8">
         <v>999287</v>
@@ -6503,16 +6591,16 @@
         <v>43327</v>
       </c>
       <c r="M80" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N80" s="12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O80" s="12" t="s">
         <v>30</v>
       </c>
       <c r="P80" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q80" s="12"/>
       <c r="R80" s="13"/>
@@ -6520,45 +6608,45 @@
         <v>1</v>
       </c>
       <c r="T80" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U80" s="13" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="V80" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>28</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H81" s="12" t="s">
         <v>3</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K81" s="8">
         <v>664678</v>
@@ -6567,7 +6655,7 @@
         <v>43565</v>
       </c>
       <c r="M81" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N81" s="12" t="s">
         <v>17</v>
@@ -6576,7 +6664,7 @@
         <v>23</v>
       </c>
       <c r="P81" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q81" s="12"/>
       <c r="R81" s="13"/>
@@ -6584,24 +6672,24 @@
         <v>1</v>
       </c>
       <c r="T81" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U81" s="13" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="V81" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>26</v>
@@ -6610,7 +6698,7 @@
         <v>1234567</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G82" s="12" t="s">
         <v>35</v>
@@ -6622,7 +6710,7 @@
         <v>4</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K82" s="8">
         <v>950000</v>
@@ -6631,7 +6719,7 @@
         <v>43108</v>
       </c>
       <c r="M82" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N82" s="12" t="s">
         <v>17</v>
@@ -6640,7 +6728,7 @@
         <v>29</v>
       </c>
       <c r="P82" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q82" s="12"/>
       <c r="R82" s="13"/>
@@ -6648,36 +6736,36 @@
         <v>1</v>
       </c>
       <c r="T82" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U82" s="13" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="V82" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D83" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H83" s="12" t="s">
         <v>3</v>
@@ -6686,7 +6774,7 @@
         <v>33</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K83" s="8">
         <v>774678</v>
@@ -6695,7 +6783,7 @@
         <v>43534</v>
       </c>
       <c r="M83" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N83" s="12" t="s">
         <v>17</v>
@@ -6704,7 +6792,7 @@
         <v>23</v>
       </c>
       <c r="P83" s="12" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="Q83" s="12"/>
       <c r="R83" s="13"/>
@@ -6712,45 +6800,45 @@
         <v>1</v>
       </c>
       <c r="T83" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U83" s="13" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="V83" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I84" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K84" s="8">
         <v>0</v>
@@ -6759,7 +6847,7 @@
         <v>43593</v>
       </c>
       <c r="M84" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N84" s="12" t="s">
         <v>17</v>
@@ -6768,7 +6856,7 @@
         <v>30</v>
       </c>
       <c r="P84" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q84" s="12"/>
       <c r="R84" s="13"/>
@@ -6776,36 +6864,36 @@
         <v>1</v>
       </c>
       <c r="T84" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U84" s="13" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="V84" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D85" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H85" s="12" t="s">
         <v>1</v>
@@ -6814,7 +6902,7 @@
         <v>6</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K85" s="8">
         <v>750000</v>
@@ -6823,7 +6911,7 @@
         <v>43992</v>
       </c>
       <c r="M85" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="N85" s="12" t="s">
         <v>17</v>
@@ -6840,36 +6928,36 @@
         <v>1</v>
       </c>
       <c r="T85" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U85" s="13" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="V85" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
     <row r="86" spans="1:22" ht="28" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D86" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H86" s="12" t="s">
         <v>5</v>
@@ -6878,7 +6966,7 @@
         <v>2</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K86" s="8">
         <v>750000</v>
@@ -6887,7 +6975,7 @@
         <v>43167</v>
       </c>
       <c r="M86" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="N86" s="12" t="s">
         <v>17</v>
@@ -6896,7 +6984,7 @@
         <v>23</v>
       </c>
       <c r="P86" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="Q86" s="12"/>
       <c r="R86" s="13"/>
@@ -6904,17 +6992,17 @@
         <v>1</v>
       </c>
       <c r="T86" s="13" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="U86" s="13" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="V86" s="13" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V86"/>
+  <autoFilter ref="A1:V1"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
@@ -6927,7 +7015,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -6944,22 +7034,22 @@
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -6976,7 +7066,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
@@ -6987,19 +7077,19 @@
         <v>60</v>
       </c>
       <c r="C3" s="1">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data/PublishingSubsidiesAPIDatasheet.xlsx
+++ b/src/test/resources/data/PublishingSubsidiesAPIDatasheet.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="349">
   <si>
     <t>Training</t>
   </si>
@@ -1058,6 +1058,12 @@
   </si>
   <si>
     <t>Subsidy Element Full Amount is mandatory.|Subsidy Element Full Amount is invalid.</t>
+  </si>
+  <si>
+    <t>Subsidy Element Full Amount Range is mandatory when Subsidy Instrument is Tax Measure.</t>
+  </si>
+  <si>
+    <t>Subsidy Control number does not exists.</t>
   </si>
   <si>
     <r>
@@ -1066,12 +1072,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Subsidy Measure Title must be 255 characters or fewer </t>
+      <t>Subsidy Measure Title must be 255 characters or fewer</t>
     </r>
     <r>
       <rPr>
@@ -1086,12 +1091,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Size of Organization  field is mandatory.</t>
+      <t>Size of Organization field is mandatory.</t>
     </r>
     <r>
       <rPr>
@@ -1101,17 +1105,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>|Size of Organization  field is mandatory.|Spending Region field is mandatory.|Spending Region field is mandatory.|Spending Sector field is mandatory.|Spending Sector field is mandatory.|Goods or Services field is mandatory.|Goods or Services field is mandatory.|</t>
+      <t>|Size of Organization field is mandatory.|Spending Region field is mandatory.|Spending Region field is mandatory.|Spending Sector field is mandatory.|Spending Sector field is mandatory.|Goods or Services field is mandatory.|Goods or Services field is mandatory.|</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Subsidy Element Full Amount Range is mandatory when Subsidy Instrument is Tax Measure .</t>
+      <t>Subsidy Element Full Amount Range is mandatory when Subsidy Instrument is Tax Measure.</t>
     </r>
     <r>
       <rPr>
@@ -1125,10 +1128,7 @@
     </r>
   </si>
   <si>
-    <t>Subsidy Control Number does not exists.</t>
-  </si>
-  <si>
-    <t>Subsidy Element Full Amount Range is mandatory when Subsidy Instrument is Tax Measure.</t>
+    <t>StatusCode</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1164,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1179,7 +1178,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1222,7 +1221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1261,20 +1260,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1567,11 +1563,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V86"/>
+  <dimension ref="A1:W86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1589,9 +1585,10 @@
     <col min="20" max="20" width="25.7265625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="63.7265625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1658,8 +1655,11 @@
       <c r="V1" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W1" s="17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>166</v>
       </c>
@@ -1718,8 +1718,11 @@
       <c r="V2" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W2" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>167</v>
       </c>
@@ -1782,8 +1785,11 @@
       <c r="V3" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W3" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>168</v>
       </c>
@@ -1842,8 +1848,11 @@
       <c r="V4" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W4" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>169</v>
       </c>
@@ -1902,8 +1911,11 @@
       <c r="V5" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" ht="56" x14ac:dyDescent="0.35">
+      <c r="W5" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="56" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>170</v>
       </c>
@@ -1962,8 +1974,11 @@
       <c r="V6" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W6" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>171</v>
       </c>
@@ -1976,7 +1991,7 @@
       <c r="D7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="14">
         <v>10323184</v>
       </c>
       <c r="F7" s="11" t="s">
@@ -2022,8 +2037,11 @@
       <c r="V7" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W7" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>172</v>
       </c>
@@ -2082,8 +2100,11 @@
       <c r="V8" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W8" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>173</v>
       </c>
@@ -2142,8 +2163,11 @@
       <c r="V9" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W9" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>174</v>
       </c>
@@ -2202,8 +2226,11 @@
       <c r="V10" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W10" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>175</v>
       </c>
@@ -2216,7 +2243,7 @@
       <c r="D11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>1378312</v>
       </c>
       <c r="F11" s="11" t="s">
@@ -2262,8 +2289,11 @@
       <c r="V11" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W11" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>176</v>
       </c>
@@ -2322,8 +2352,11 @@
       <c r="V12" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W12" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>177</v>
       </c>
@@ -2382,8 +2415,11 @@
       <c r="V13" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W13" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>178</v>
       </c>
@@ -2442,8 +2478,11 @@
       <c r="V14" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W14" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>179</v>
       </c>
@@ -2456,7 +2495,7 @@
       <c r="D15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="14">
         <v>2021215</v>
       </c>
       <c r="F15" s="11" t="s">
@@ -2502,8 +2541,11 @@
       <c r="V15" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W15" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>180</v>
       </c>
@@ -2562,8 +2604,11 @@
       <c r="V16" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W16" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>181</v>
       </c>
@@ -2622,8 +2667,11 @@
       <c r="V17" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W17" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>182</v>
       </c>
@@ -2682,8 +2730,11 @@
       <c r="V18" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W18" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>183</v>
       </c>
@@ -2742,8 +2793,11 @@
       <c r="V19" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W19" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>184</v>
       </c>
@@ -2802,8 +2856,11 @@
       <c r="V20" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W20" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>185</v>
       </c>
@@ -2862,8 +2919,11 @@
       <c r="V21" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W21" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>186</v>
       </c>
@@ -2922,8 +2982,11 @@
       <c r="V22" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" ht="42" x14ac:dyDescent="0.35">
+      <c r="W22" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="42" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>187</v>
       </c>
@@ -2982,8 +3045,11 @@
       <c r="V23" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W23" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>188</v>
       </c>
@@ -3042,8 +3108,11 @@
       <c r="V24" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W24" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>189</v>
       </c>
@@ -3102,8 +3171,11 @@
       <c r="V25" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W25" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>190</v>
       </c>
@@ -3162,8 +3234,11 @@
       <c r="V26" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W26" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>225</v>
       </c>
@@ -3172,7 +3247,7 @@
       <c r="D27" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="14">
         <v>100002389</v>
       </c>
       <c r="F27" s="11" t="s">
@@ -3222,8 +3297,11 @@
       <c r="V27" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W27" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>226</v>
       </c>
@@ -3236,7 +3314,7 @@
       <c r="D28" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="14">
         <v>58614000</v>
       </c>
       <c r="F28" s="11" t="s">
@@ -3290,8 +3368,11 @@
       <c r="V28" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W28" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>227</v>
       </c>
@@ -3304,7 +3385,7 @@
       <c r="D29" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="14">
         <v>58614000</v>
       </c>
       <c r="F29" s="11" t="s">
@@ -3348,14 +3429,17 @@
       <c r="T29" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="U29" s="17" t="s">
+      <c r="U29" s="16" t="s">
         <v>346</v>
       </c>
       <c r="V29" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W29" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>228</v>
       </c>
@@ -3368,7 +3452,7 @@
       <c r="D30" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="14">
         <v>100002389</v>
       </c>
       <c r="F30" s="11" t="s">
@@ -3412,14 +3496,17 @@
       <c r="T30" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="U30" s="17" t="s">
+      <c r="U30" s="16" t="s">
         <v>346</v>
       </c>
       <c r="V30" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" ht="126" x14ac:dyDescent="0.35">
+      <c r="W30" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="126" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>229</v>
       </c>
@@ -3432,7 +3519,7 @@
       <c r="D31" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="14">
         <v>58614000</v>
       </c>
       <c r="F31" s="11" t="s">
@@ -3477,7 +3564,7 @@
       <c r="S31" s="13">
         <v>2</v>
       </c>
-      <c r="T31" s="18" t="s">
+      <c r="T31" s="16" t="s">
         <v>337</v>
       </c>
       <c r="U31" s="13" t="s">
@@ -3486,8 +3573,11 @@
       <c r="V31" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W31" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>230</v>
       </c>
@@ -3548,8 +3638,11 @@
       <c r="V32" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W32" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>231</v>
       </c>
@@ -3612,8 +3705,11 @@
       <c r="V33" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W33" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>232</v>
       </c>
@@ -3680,8 +3776,11 @@
       <c r="V34" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W34" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>233</v>
       </c>
@@ -3742,8 +3841,11 @@
       <c r="V35" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W35" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>234</v>
       </c>
@@ -3806,8 +3908,11 @@
       <c r="V36" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="W36" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="275.5" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>235</v>
       </c>
@@ -3874,8 +3979,11 @@
       <c r="V37" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W37" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>236</v>
       </c>
@@ -3924,20 +4032,23 @@
       </c>
       <c r="Q38" s="12"/>
       <c r="R38" s="13"/>
-      <c r="S38" s="16">
+      <c r="S38" s="15">
         <v>1</v>
       </c>
       <c r="T38" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="U38" s="17" t="s">
-        <v>347</v>
+      <c r="U38" s="16" t="s">
+        <v>345</v>
       </c>
       <c r="V38" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W38" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>237</v>
       </c>
@@ -3989,7 +4100,7 @@
       <c r="S39" s="13">
         <v>2</v>
       </c>
-      <c r="T39" s="18" t="s">
+      <c r="T39" s="16" t="s">
         <v>339</v>
       </c>
       <c r="U39" s="13" t="s">
@@ -3998,8 +4109,11 @@
       <c r="V39" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W39" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>238</v>
       </c>
@@ -4066,8 +4180,11 @@
       <c r="V40" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W40" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>239</v>
       </c>
@@ -4128,8 +4245,11 @@
       <c r="V41" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W41" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>240</v>
       </c>
@@ -4190,8 +4310,11 @@
       <c r="V42" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W42" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>241</v>
       </c>
@@ -4256,8 +4379,11 @@
       <c r="V43" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W43" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>242</v>
       </c>
@@ -4318,8 +4444,11 @@
       <c r="V44" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W44" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>243</v>
       </c>
@@ -4380,8 +4509,11 @@
       <c r="V45" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W45" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>244</v>
       </c>
@@ -4448,8 +4580,11 @@
       <c r="V46" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W46" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>245</v>
       </c>
@@ -4512,8 +4647,11 @@
       <c r="V47" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="48" spans="1:22" ht="42" x14ac:dyDescent="0.35">
+      <c r="W47" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="42" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>246</v>
       </c>
@@ -4576,8 +4714,11 @@
       <c r="V48" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="49" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W48" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>247</v>
       </c>
@@ -4644,8 +4785,11 @@
       <c r="V49" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="50" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W49" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>248</v>
       </c>
@@ -4708,8 +4852,11 @@
       <c r="V50" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W50" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>249</v>
       </c>
@@ -4772,8 +4919,11 @@
       <c r="V51" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="52" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W51" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>250</v>
       </c>
@@ -4840,8 +4990,11 @@
       <c r="V52" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="53" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W52" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>251</v>
       </c>
@@ -4904,8 +5057,11 @@
       <c r="V53" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W53" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>252</v>
       </c>
@@ -4968,8 +5124,11 @@
       <c r="V54" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="55" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W54" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>253</v>
       </c>
@@ -5036,8 +5195,11 @@
       <c r="V55" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="56" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W55" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>254</v>
       </c>
@@ -5100,8 +5262,11 @@
       <c r="V56" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W56" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>255</v>
       </c>
@@ -5164,8 +5329,11 @@
       <c r="V57" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="58" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W57" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>256</v>
       </c>
@@ -5232,8 +5400,11 @@
       <c r="V58" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="59" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W58" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>257</v>
       </c>
@@ -5296,8 +5467,11 @@
       <c r="V59" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W59" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A60" s="5" t="s">
         <v>258</v>
       </c>
@@ -5358,8 +5532,11 @@
       <c r="V60" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="61" spans="1:22" ht="280" x14ac:dyDescent="0.35">
+      <c r="W60" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="280" x14ac:dyDescent="0.35">
       <c r="A61" s="5" t="s">
         <v>259</v>
       </c>
@@ -5426,8 +5603,11 @@
       <c r="V61" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="62" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W61" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>260</v>
       </c>
@@ -5488,8 +5668,11 @@
       <c r="V62" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W62" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A63" s="5" t="s">
         <v>261</v>
       </c>
@@ -5550,8 +5733,11 @@
       <c r="V63" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W63" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A64" s="5" t="s">
         <v>262</v>
       </c>
@@ -5618,8 +5804,11 @@
       <c r="V64" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="65" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W64" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A65" s="5" t="s">
         <v>263</v>
       </c>
@@ -5682,8 +5871,11 @@
       <c r="V65" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W65" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A66" s="5" t="s">
         <v>264</v>
       </c>
@@ -5744,8 +5936,11 @@
       <c r="V66" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W66" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A67" s="5" t="s">
         <v>265</v>
       </c>
@@ -5812,8 +6007,11 @@
       <c r="V67" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="68" spans="1:22" ht="42" x14ac:dyDescent="0.35">
+      <c r="W67" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="42" x14ac:dyDescent="0.35">
       <c r="A68" s="5" t="s">
         <v>266</v>
       </c>
@@ -5876,8 +6074,11 @@
       <c r="V68" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="69" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W68" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A69" s="5" t="s">
         <v>267</v>
       </c>
@@ -5942,8 +6143,11 @@
       <c r="V69" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="70" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W69" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A70" s="5" t="s">
         <v>268</v>
       </c>
@@ -6004,8 +6208,11 @@
       <c r="V70" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W70" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
         <v>269</v>
       </c>
@@ -6066,8 +6273,11 @@
       <c r="V71" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W71" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A72" s="5" t="s">
         <v>270</v>
       </c>
@@ -6104,8 +6314,11 @@
       <c r="V72" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W72" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A73" s="5" t="s">
         <v>271</v>
       </c>
@@ -6168,8 +6381,11 @@
       <c r="V73" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="74" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W73" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
         <v>272</v>
       </c>
@@ -6236,8 +6452,11 @@
       <c r="V74" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="75" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W74" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
         <v>273</v>
       </c>
@@ -6300,8 +6519,11 @@
       <c r="V75" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="76" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W75" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>274</v>
       </c>
@@ -6364,8 +6586,11 @@
       <c r="V76" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="77" spans="1:22" ht="56" x14ac:dyDescent="0.35">
+      <c r="W76" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="56" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>275</v>
       </c>
@@ -6428,8 +6653,11 @@
       <c r="V77" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W77" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>276</v>
       </c>
@@ -6492,8 +6720,11 @@
       <c r="V78" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W78" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
         <v>277</v>
       </c>
@@ -6552,8 +6783,11 @@
       <c r="V79" s="7" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W79" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>278</v>
       </c>
@@ -6616,8 +6850,11 @@
       <c r="V80" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W80" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>279</v>
       </c>
@@ -6680,8 +6917,11 @@
       <c r="V81" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W81" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>280</v>
       </c>
@@ -6744,8 +6984,11 @@
       <c r="V82" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W82" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>281</v>
       </c>
@@ -6808,8 +7051,11 @@
       <c r="V83" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W83" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>282</v>
       </c>
@@ -6872,8 +7118,11 @@
       <c r="V84" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="W84" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
         <v>283</v>
       </c>
@@ -6936,8 +7185,11 @@
       <c r="V85" s="13" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="86" spans="1:22" ht="28" x14ac:dyDescent="0.35">
+      <c r="W85" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" ht="28" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>284</v>
       </c>
@@ -6999,6 +7251,9 @@
       </c>
       <c r="V86" s="13" t="s">
         <v>331</v>
+      </c>
+      <c r="W86" s="13">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -7013,10 +7268,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7027,9 +7282,10 @@
     <col min="4" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="40.54296875" customWidth="1"/>
     <col min="7" max="7" width="35.81640625" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -7051,8 +7307,11 @@
       <c r="G1" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" s="17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -7068,8 +7327,11 @@
       <c r="G2" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="H2" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -7086,10 +7348,13 @@
         <v>333</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>67</v>
+      </c>
+      <c r="H3" s="13">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
